--- a/data/SUTdata_matix_format.xlsx
+++ b/data/SUTdata_matix_format.xlsx
@@ -402,45 +402,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -450,12 +423,40 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,459 +790,459 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="16">
         <v>414703.30757342721</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>2017.4144509072992</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="17">
         <v>158.06670522416562</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="17">
         <v>2461.1260407251475</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="18">
         <v>16615.963337081164</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="19">
         <v>7185181.2833809145</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="19">
         <v>12215.319196747674</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="19">
         <v>104083.02886548756</v>
       </c>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
         <v>0</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="18">
         <v>1752.2811967178363</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="19">
         <v>21275.685260218732</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="19">
         <v>1772227.7281089956</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="19">
         <v>40040.42130486494</v>
       </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
         <v>0</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="18">
         <v>9013.0812878640681</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="19">
         <v>348797.84071919904</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="19">
         <v>34986.472044241353</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="19">
         <v>13502924.442151261</v>
       </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <v>0</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
         <v>253005.4521488508</v>
       </c>
-      <c r="J12" s="28">
-        <v>0</v>
-      </c>
-      <c r="K12" s="28">
-        <v>0</v>
-      </c>
-      <c r="L12" s="28">
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
         <v>1824.1517256475738</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
         <v>9.4855964976286025</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="19">
         <v>4428954.9373513311</v>
       </c>
-      <c r="K13" s="28">
-        <v>0</v>
-      </c>
-      <c r="L13" s="28">
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
         <v>102092.42520977746</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
-        <v>0</v>
-      </c>
-      <c r="K14" s="28">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
         <v>1017210.5071141919</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
         <v>1135.3649762860271</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="19">
         <v>118789.84624589566</v>
       </c>
-      <c r="K15" s="28">
-        <v>0</v>
-      </c>
-      <c r="L15" s="28">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
         <v>12898769.64593944</v>
       </c>
       <c r="O15" s="1"/>
@@ -1533,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S140"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1547,7 @@
     <col min="5" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1562,769 +1563,777 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="16">
         <v>56700.757021434023</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>193849.24389048078</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="17">
         <v>2809.8968785729417</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="17">
         <v>27331.545737197877</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="13">
         <v>1850</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="13">
         <v>10280</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="13">
         <v>42</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="13">
         <v>210</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="17">
         <v>107505.47667736365</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="17">
         <v>16103.213972799878</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="13">
         <v>1308.0435919927895</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="13">
         <v>195.93146785278896</v>
       </c>
-      <c r="Q8" s="22">
-        <v>1153.7755386102017</v>
-      </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="Q8" s="13">
+        <v>1153.8055325891473</v>
+      </c>
+      <c r="S8" s="31"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="18">
         <v>91474.823036468137</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="19">
         <v>2741301.2588093295</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="19">
         <v>386923.48017737368</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="19">
         <v>909198.6936596015</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="15">
         <v>2203</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="15">
         <v>167398</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="15">
         <v>14993</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="15">
         <v>25037</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="19">
         <v>1474543.7225576744</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="19">
         <v>632906.35752765276</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="15">
         <v>75687.804288948028</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="15">
         <v>32486.857994751856</v>
       </c>
-      <c r="Q9" s="24">
-        <v>763941.96055329905</v>
-      </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="Q9" s="15">
+        <v>763941.59672843106</v>
+      </c>
+      <c r="S9" s="31"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="18">
         <v>2760.7920033219311</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="19">
         <v>44840.673707619775</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="19">
         <v>352792.97232488729</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="19">
         <v>198181.97923618896</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="15">
         <v>72</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="15">
         <v>90</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="15">
         <v>50</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="15">
         <v>115</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="19">
         <v>51285.594170836637</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="19">
         <v>1182390.8948782317</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="15">
         <v>12.6499589841122</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="15">
         <v>291.64517961074347</v>
       </c>
-      <c r="Q10" s="24">
-        <v>2411.6562473537015</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="Q10" s="15">
+        <v>2411.9144111161586</v>
+      </c>
+      <c r="S10" s="31"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="18">
         <v>71052.509955392961</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="19">
         <v>1552059.3634475246</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="19">
         <v>314198.53323240392</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="19">
         <v>4065709.6439135293</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="15">
         <v>1498</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="15">
         <v>103208</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="15">
         <v>16317</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="15">
         <v>118935</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="19">
         <v>6870975.4274285519</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="19">
         <v>494454.62593600858</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="15">
         <v>49187.589449195468</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="15">
         <v>3539.6766294211593</v>
       </c>
-      <c r="Q11" s="24">
-        <v>234586.39470755</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="Q11" s="15">
+        <v>234586.46621053852</v>
+      </c>
+      <c r="S11" s="31"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="14">
         <v>1545.0127611774947</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="15">
         <v>9583.9450672492094</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="15">
         <v>89.378648165293654</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="15">
         <v>1030.202747288052</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="19">
         <v>47081.649317767231</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="19">
         <v>132753.40588836191</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="19">
         <v>822.41641736592476</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="19">
         <v>6157.3112659613271</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="15">
         <v>6297.1026984646296</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="15">
         <v>819.49375627442464</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="19">
         <v>40502.66470631156</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="19">
         <v>-33.564392557460792</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="15">
         <v>8180.5849926687661</v>
       </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="S12" s="31"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="14">
         <v>4052.4974896688082</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="15">
         <v>323693.97234544298</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="15">
         <v>16531.433535497825</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="15">
         <v>61023.811582312192</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="19">
         <v>50001.869792046695</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="19">
         <v>1348708.2642466254</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="19">
         <v>222971.68110908422</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="19">
         <v>769937.2668004377</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="15">
         <v>129042.74822642509</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="15">
         <v>80809.185823161592</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="19">
         <v>1075890.5722947831</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="19">
         <v>375081.30807734397</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="15">
         <v>73312.236834776588</v>
       </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="S13" s="31"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
         <v>1363.0034439985407</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="19">
         <v>25334.059547610359</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="19">
         <v>739.87662896753</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="19">
         <v>110640.91028091937</v>
       </c>
-      <c r="M14" s="24">
-        <v>0</v>
-      </c>
-      <c r="N14" s="24">
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
         <v>10</v>
       </c>
-      <c r="O14" s="28">
-        <v>0</v>
-      </c>
-      <c r="P14" s="28">
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
         <v>879077.25282743527</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="15">
         <v>45.404385260888375</v>
       </c>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="S14" s="31"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="14">
         <v>3216.8778325903704</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="15">
         <v>189900.14028264055</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="15">
         <v>11558.417271392369</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="15">
         <v>55689.03994968484</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="19">
         <v>37975.149076979193</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="19">
         <v>840248.78194819402</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="19">
         <v>224858.4177307552</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="19">
         <v>3783418.0354542141</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="15">
         <v>18053.368693151053</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="15">
         <v>4220.0397558438808</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="19">
         <v>7260288.2363079153</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="19">
         <v>470917.6438234222</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="15">
         <v>118350.70903483592</v>
       </c>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="S15" s="31"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="14">
         <v>3392.9713519421675</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="15">
         <v>197334.18558686029</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="15">
         <v>12743.89411571547</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="15">
         <v>158355.58075858228</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="15">
         <v>5907.1633783290745</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="15">
         <v>308796.03558555245</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="15">
         <v>31427.424968989566</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="15">
         <v>151474.85676760226</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="15">
         <v>153449.63972739296</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="15">
         <v>86963.012198008553</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="15">
         <v>3520149.4394018687</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="15">
         <v>989188.49839271954</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="14">
         <v>6710.2411205275657</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="15">
         <v>74985.055966575514</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="15">
         <v>17099.420776746472</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="15">
         <v>271017.71884496155</v>
       </c>
-      <c r="I17" s="24">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
         <v>802703.11982014019</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="15">
         <v>204412.67687368783</v>
       </c>
-      <c r="O17" s="24">
-        <v>0</v>
-      </c>
-      <c r="P17" s="24">
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
         <v>0</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="14">
         <v>58933.521905901594</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="15">
         <v>1243388.8572053353</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="15">
         <v>378882.97400441696</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="15">
         <v>4286444.7468843479</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="15">
         <v>31109.987250275444</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="15">
         <v>898321.88750478718</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="15">
         <v>271453.90956404991</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="15">
         <v>4359561.9561253022</v>
       </c>
       <c r="M18" s="1"/>
@@ -2334,34 +2343,34 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="14">
         <v>-21879.784508782846</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="15">
         <v>-56645.715326882782</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="15">
         <v>-28584.539119069173</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="15">
         <v>275860.7389547326</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="15">
         <v>-11549.959939503386</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="15">
         <v>-40925.319232695016</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="15">
         <v>-20479.634687589296</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="15">
         <v>280566.30931958527</v>
       </c>
       <c r="M19" s="1"/>
@@ -2371,34 +2380,34 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="14">
         <v>164124.41394568497</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="15">
         <v>1042981.2439283638</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="15">
         <v>354541.724209106</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="15">
         <v>3339665.3179168464</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="15">
         <v>86638.440401741609</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="15">
         <v>753531.66810879018</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="15">
         <v>254014.41538256884</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="15">
         <v>3396632.5768608404</v>
       </c>
       <c r="M20" s="1"/>
@@ -2680,12 +2689,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M3:Q3"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SUTdata_matix_format.xlsx
+++ b/data/SUTdata_matix_format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
   <si>
     <t>EU27</t>
   </si>
@@ -423,6 +423,7 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,7 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,24 +792,24 @@
       <c r="B3" s="3"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
@@ -838,8 +838,8 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -866,14 +866,14 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -900,12 +900,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1534,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,31 +1568,31 @@
       <c r="B3" s="3"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="29" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="20"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1636,8 +1636,8 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1679,14 +1679,14 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1728,12 +1728,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="Q8" s="13">
         <v>1153.8055325891473</v>
       </c>
-      <c r="S8" s="31"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
       <c r="Q9" s="15">
         <v>763941.59672843106</v>
       </c>
-      <c r="S9" s="31"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1936,7 +1936,7 @@
       <c r="Q10" s="15">
         <v>2411.9144111161586</v>
       </c>
-      <c r="S10" s="31"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
       <c r="Q11" s="15">
         <v>234586.46621053852</v>
       </c>
-      <c r="S11" s="31"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
       <c r="Q12" s="15">
         <v>8180.5849926687661</v>
       </c>
-      <c r="S12" s="31"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
       <c r="Q13" s="15">
         <v>73312.236834776588</v>
       </c>
-      <c r="S13" s="31"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
       <c r="Q14" s="15">
         <v>45.404385260888375</v>
       </c>
-      <c r="S14" s="31"/>
+      <c r="S14" s="20"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
       <c r="Q15" s="15">
         <v>118350.70903483592</v>
       </c>
-      <c r="S15" s="31"/>
+      <c r="S15" s="20"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2425,267 +2425,6 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I122" t="s">
-        <v>20</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I123" t="s">
-        <v>21</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I124" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I125" t="s">
-        <v>23</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I126" t="s">
-        <v>24</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I127" t="s">
-        <v>25</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
-        <v>26</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I129" t="s">
-        <v>27</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I130" t="s">
-        <v>28</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I131" t="s">
-        <v>29</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I132" t="s">
-        <v>30</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I133" t="s">
-        <v>31</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J137" t="e">
-        <f t="array" ref="J137:M140">MMULT(J93:BP96,MMULT(J22:AR80,J99:M133))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K137" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L137" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M137" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J138" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K138" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L138" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M138" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J139" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K139" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L139" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M139" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J140" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K140" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L140" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M140" t="e">
-        <v>#VALUE!</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/data/SUTdata_matix_format.xlsx
+++ b/data/SUTdata_matix_format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="46">
   <si>
     <t>EU27</t>
   </si>
@@ -76,42 +76,6 @@
   </si>
   <si>
     <t>RoW</t>
-  </si>
-  <si>
-    <t>Water Transport</t>
-  </si>
-  <si>
-    <t>Air Transport</t>
-  </si>
-  <si>
-    <t>Other Supporting and Auxiliary Transport Activities; Activities of Travel Agencies</t>
-  </si>
-  <si>
-    <t>Post and Telecommunications</t>
-  </si>
-  <si>
-    <t>Financial Intermediation</t>
-  </si>
-  <si>
-    <t>Real Estate Activities</t>
-  </si>
-  <si>
-    <t>Renting of M&amp;Eq and Other Business Activities</t>
-  </si>
-  <si>
-    <t>Public Admin and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health and Social Work</t>
-  </si>
-  <si>
-    <t>Other Community, Social and Personal Services</t>
-  </si>
-  <si>
-    <t>Private Households with Employed Persons</t>
   </si>
   <si>
     <t>Services</t>
@@ -758,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>2007</v>
@@ -781,10 +745,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -793,7 +757,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="21" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -807,7 +771,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="5" t="s">
@@ -867,11 +831,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="5" t="s">
@@ -884,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -896,14 +860,14 @@
         <v>15</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="11" t="s">
@@ -1059,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -1216,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -1258,267 +1222,6 @@
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
-    </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I123" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I124" t="s">
-        <v>21</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I125" t="s">
-        <v>22</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I126" t="s">
-        <v>23</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I127" t="s">
-        <v>24</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
-        <v>25</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I129" t="s">
-        <v>26</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I130" t="s">
-        <v>27</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I131" t="s">
-        <v>28</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I132" t="s">
-        <v>29</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I133" t="s">
-        <v>30</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I134" t="s">
-        <v>31</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J138" t="e">
-        <f t="array" ref="J138:M141">MMULT(J94:BP97,MMULT(J23:AR81,J100:M134))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K138" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L138" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M138" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J139" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K139" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L139" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M139" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J140" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K140" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L140" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M140" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M141" t="e">
-        <v>#VALUE!</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1534,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1252,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>2007</v>
@@ -1557,10 +1260,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1569,7 +1272,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -1579,7 +1282,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="30" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -1590,7 +1293,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="5" t="s">
@@ -1680,11 +1383,11 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="5" t="s">
@@ -1697,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -1709,29 +1412,29 @@
         <v>15</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="11" t="s">
@@ -1759,19 +1462,19 @@
         <v>17</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1947,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -2167,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -2216,33 +1919,33 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E16" s="14">
-        <v>3392.9713519421675</v>
-      </c>
-      <c r="F16" s="15">
-        <v>197334.18558686029</v>
-      </c>
-      <c r="G16" s="15">
+        <v>3392.9708317052609</v>
+      </c>
+      <c r="F16" s="14">
+        <v>197334.18448755972</v>
+      </c>
+      <c r="G16" s="14">
         <v>12743.89411571547</v>
       </c>
-      <c r="H16" s="15">
-        <v>158355.58075858228</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H16" s="14">
+        <v>158355.57893565058</v>
+      </c>
+      <c r="I16" s="14">
         <v>5907.1633783290745</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>308796.03558555245</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>31427.424968989566</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>151474.85676760226</v>
       </c>
       <c r="M16" s="15">
@@ -2261,10 +1964,10 @@
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E17" s="14">
         <v>6710.2411205275657</v>
@@ -2307,10 +2010,10 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E18" s="14">
         <v>58933.521905901594</v>
@@ -2344,10 +2047,10 @@
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E19" s="14">
         <v>-21879.784508782846</v>
@@ -2381,10 +2084,10 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E20" s="14">
         <v>164124.41394568497</v>
@@ -2415,6 +2118,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
@@ -2425,6 +2138,9 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
